--- a/R/UKPDS_macrovascular_coef.xlsx
+++ b/R/UKPDS_macrovascular_coef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50A43A-00E4-47E4-B088-B2FF12FEC72A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8A6797-FC96-433C-8B18-53FF26B1BD8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Isaac Corro Ramos: 
-This is too high. The probability should be higher for lower values of eGFR and decrease for higher values of eGFR (high eGFR is good). The problem is that with the current definition of eGFR, this is not happenning after the threshold. So, I think the probability for eGFR &gt;= 60 should be all the same.
+This is too high for eGFR &gt; 60. The probability should be higher for lower values of eGFR and decrease for higher values of eGFR (high eGFR is good). The problem is that with the current definition of eGFR, this is not happenning after the threshold. So, I think the probability for eGFR &gt;= 60 should be all the same.
 So, I would define the variable as =IF(J10&lt;=6,J10,6). 
 The second problem is that, when we define the variable like this, we screw the equation for renal failure, since as you might remember,  we simulated no events at all. So, I think for renal failure, the variable should be indeed defined as =IF(J10&lt;=6,J10,0).
 For LDL &gt; 35 this is not a problem because it only affects the probability after it becomes larger and in the way it should be: the larger the LDL the higher the probability.
@@ -213,7 +213,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -728,8 +728,8 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="15" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="20" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:Z31"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="J10">
         <f>O32/10</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <f>$J$10*B10</f>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="M10">
         <f t="shared" ref="M10:R10" si="6">$J$10*C10</f>
-        <v>-0.21199999999999999</v>
+        <v>-0.371</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
@@ -1654,12 +1654,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="4">
         <f>IF(J10&lt;=6,J10,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <f>$J$11*B11</f>
-        <v>-0.88</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ref="M11:R11" si="7">$J$11*C11</f>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="7"/>
-        <v>-1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="7"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>-0.76</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="7"/>
@@ -2505,31 +2505,31 @@
         <v>32</v>
       </c>
       <c r="L26">
-        <f>SUM(L4:L25)</f>
-        <v>4.8904800000000002</v>
+        <f t="shared" ref="L26:R26" si="22">SUM(L4:L25)</f>
+        <v>5.7704800000000001</v>
       </c>
       <c r="M26">
-        <f>SUM(M4:M25)</f>
-        <v>-0.88914000000000026</v>
+        <f t="shared" si="22"/>
+        <v>-1.0481400000000005</v>
       </c>
       <c r="N26">
-        <f>SUM(N4:N25)</f>
+        <f t="shared" si="22"/>
         <v>2.7111000000000001</v>
       </c>
       <c r="O26">
-        <f>SUM(O4:O25)</f>
-        <v>2.7977600000000002</v>
+        <f t="shared" si="22"/>
+        <v>3.9177600000000004</v>
       </c>
       <c r="P26">
-        <f>SUM(P4:P25)</f>
+        <f t="shared" si="22"/>
         <v>0.24989999999999998</v>
       </c>
       <c r="Q26">
-        <f>SUM(Q4:Q25)</f>
-        <v>5.6519600000000008</v>
+        <f t="shared" si="22"/>
+        <v>6.4119600000000014</v>
       </c>
       <c r="R26">
-        <f>SUM(R4:R25)</f>
+        <f t="shared" si="22"/>
         <v>2.2337600000000002</v>
       </c>
       <c r="T26" s="2" t="s">
@@ -2542,30 +2542,30 @@
       </c>
       <c r="L27" s="5">
         <f>EXP(B2+L26)*$B$32^B3</f>
-        <v>1.4813967625865647E-2</v>
+        <v>3.5714990200073543E-2</v>
       </c>
       <c r="M27" s="5">
         <f>EXP(C2+M26)*$B$32^C3</f>
-        <v>7.6239964808681795E-3</v>
+        <v>6.5032412389740297E-3</v>
       </c>
       <c r="N27" s="5">
         <f>EXP(D2+N26)*$B$32^D3</f>
         <v>1.9314142268322444E-2</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ref="O27:R27" si="22">EXP(E2+O26)*$B$32^E3</f>
-        <v>5.1034350010697213E-2</v>
+        <f t="shared" ref="O27:R27" si="23">EXP(E2+O26)*$B$32^E3</f>
+        <v>0.15641284214261161</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.16594187685073394</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="22"/>
-        <v>1.3924743191779878E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.9774947243507911E-2</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.8551674027120822E-2</v>
       </c>
       <c r="T27" s="2" t="s">
@@ -2578,30 +2578,30 @@
       </c>
       <c r="L28" s="5">
         <f>EXP(B2+L26)*($B$32+1)^B3</f>
-        <v>1.7550784204671748E-2</v>
+        <v>4.2313180486434926E-2</v>
       </c>
       <c r="M28" s="5">
         <f>EXP(C2+M26)*($B$32+1)^C3</f>
-        <v>8.79496245838929E-3</v>
+        <v>7.502070954276267E-3</v>
       </c>
       <c r="N28" s="5">
         <f>EXP(D2+N26)*($B$32+1)^D3</f>
         <v>2.160254775035117E-2</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" ref="O28:R28" si="23">EXP(E2+O26)*($B$32+1)^E3</f>
-        <v>5.9535615164973119E-2</v>
+        <f t="shared" ref="O28:R28" si="24">EXP(E2+O26)*($B$32+1)^E3</f>
+        <v>0.18246798038400247</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.1856032366671716</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="23"/>
-        <v>1.64088487277653E-2</v>
+        <f t="shared" si="24"/>
+        <v>3.5086651040310043E-2</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.0439881463102522E-2</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -2614,30 +2614,30 @@
       </c>
       <c r="L29" s="8">
         <f>1-EXP(L27-L28)</f>
-        <v>2.733074910511335E-3</v>
+        <v>6.5764700265584786E-3</v>
       </c>
       <c r="M29" s="6">
         <f>1-EXP(M27-M28)</f>
-        <v>1.1702806643797414E-3</v>
+        <v>9.9833105094293551E-4</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" ref="N29:R29" si="24">1-EXP(N27-N28)</f>
+        <f t="shared" ref="N29:R29" si="25">1-EXP(N27-N28)</f>
         <v>2.285789078381617E-3</v>
       </c>
       <c r="O29" s="7">
-        <f t="shared" si="24"/>
-        <v>8.4652315822788538E-3</v>
+        <f t="shared" si="25"/>
+        <v>2.5718632033545075E-2</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.946933582503696E-2</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="24"/>
-        <v>2.4810226990542583E-3</v>
+        <f t="shared" si="25"/>
+        <v>5.2976216426329215E-3</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1817821893373215E-2</v>
       </c>
       <c r="T29" s="2" t="s">
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P32">
         <v>6.6</v>
